--- a/NewCDSDataFromClient/TEST_2020_2021.xlsx
+++ b/NewCDSDataFromClient/TEST_2020_2021.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BB546-FAD7-4C59-8463-9438533E66FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="general info" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NewCDSDataFromClient/TEST_2020_2021.xlsx
+++ b/NewCDSDataFromClient/TEST_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BB546-FAD7-4C59-8463-9438533E66FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8BD911-282E-43CD-934A-8B58E58231D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>What is rose-hulman ranking</t>
+  </si>
+  <si>
+    <t>Rose-hulman is ranked number one</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,16 +354,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NewCDSDataFromClient/TEST_2020_2021.xlsx
+++ b/NewCDSDataFromClient/TEST_2020_2021.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D43D43-CBDF-4D0B-882F-6C47E4C5BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_Test1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Tell me about the general info of rose-hulman</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +353,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/NewCDSDataFromClient/TEST_2020_2021.xlsx
+++ b/NewCDSDataFromClient/TEST_2020_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D43D43-CBDF-4D0B-882F-6C47E4C5BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EFF5D4-872D-4FFE-9E6A-753A50883045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Question</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Tell me about the general info of rose-hulman</t>
+  </si>
+  <si>
+    <t>Rose-Hulman is ranked number 1</t>
   </si>
 </sst>
 </file>
@@ -357,13 +360,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -378,6 +382,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
